--- a/common/exam-rooms-arrange/files/考生信息Excel模板.xlsx
+++ b/common/exam-rooms-arrange/files/考生信息Excel模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
   <si>
     <t>20xx年嘉兴市职业技能操作考试（请修改）</t>
   </si>
@@ -158,6 +158,9 @@
     <t>25333600101002</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>440523200611090915</t>
   </si>
   <si>
@@ -195,6 +198,54 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>经均靖</t>
+  </si>
+  <si>
+    <t>25333600101005</t>
+  </si>
+  <si>
+    <t>321204197305082275</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>机械类</t>
+  </si>
+  <si>
+    <t>2024年5月3日9:30-10:30</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>该科目考试地点在图书馆，考试不得使用计算器。</t>
+  </si>
+  <si>
+    <t>邢李柳</t>
+  </si>
+  <si>
+    <t>25333600101006</t>
+  </si>
+  <si>
+    <t>420114200308024139</t>
+  </si>
+  <si>
+    <t>建筑类</t>
+  </si>
+  <si>
+    <t>2023年2月19日10:00-10:30</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>该科目考试可以试用不带储存、编程、收发信息功能的计算器。</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1362,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1338,7 +1389,7 @@
     <col min="17" max="17" width="12.6666666666667" customWidth="1"/>
     <col min="18" max="18" width="10.1111111111111" customWidth="1"/>
     <col min="19" max="19" width="15.6666666666667" customWidth="1"/>
-    <col min="20" max="20" width="23.7777777777778" style="7" customWidth="1"/>
+    <col min="20" max="20" width="29.4074074074074" style="7" customWidth="1"/>
     <col min="22" max="22" width="34.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1544,7 +1595,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>20</v>
@@ -1552,7 +1603,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="12"/>
       <c r="J5" s="17"/>
@@ -1569,7 +1620,7 @@
         <v>27</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="11" t="s">
         <v>36</v>
@@ -1587,13 +1638,13 @@
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:22">
       <c r="A6" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>20</v>
@@ -1601,7 +1652,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" s="12"/>
       <c r="J6" s="17"/>
@@ -1618,7 +1669,7 @@
         <v>27</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>36</v>
@@ -1627,7 +1678,7 @@
         <v>37</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T6" s="18" t="s">
         <v>38</v>
@@ -1636,13 +1687,13 @@
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:22">
       <c r="A7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>20</v>
@@ -1650,7 +1701,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" s="12"/>
       <c r="J7" s="17"/>
@@ -1661,13 +1712,13 @@
         <v>26</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>36</v>
@@ -1676,17 +1727,109 @@
         <v>37</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T7" s="18" t="s">
         <v>38</v>
       </c>
       <c r="V7" s="20"/>
     </row>
-    <row r="8" spans="22:22">
+    <row r="8" ht="52" customHeight="1" spans="1:22">
+      <c r="A8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="J8" s="17"/>
+      <c r="L8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="V8" s="20"/>
     </row>
-    <row r="9" spans="22:22">
+    <row r="9" ht="33" customHeight="1" spans="1:22">
+      <c r="A9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="J9" s="17"/>
+      <c r="L9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="V9" s="20"/>
     </row>
     <row r="10" spans="22:22">
@@ -1742,29 +1885,11 @@
     </row>
     <row r="27" spans="22:22">
       <c r="V27" s="20"/>
-    </row>
-    <row r="28" spans="22:22">
-      <c r="V28" s="20"/>
-    </row>
-    <row r="29" spans="22:22">
-      <c r="V29" s="20"/>
-    </row>
-    <row r="30" spans="22:22">
-      <c r="V30" s="20"/>
-    </row>
-    <row r="31" spans="22:22">
-      <c r="V31" s="20"/>
-    </row>
-    <row r="32" spans="22:22">
-      <c r="V32" s="20"/>
-    </row>
-    <row r="33" spans="22:22">
-      <c r="V33" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:V1"/>
-    <mergeCell ref="V3:V33"/>
+    <mergeCell ref="V3:V27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/common/exam-rooms-arrange/files/考生信息Excel模板.xlsx
+++ b/common/exam-rooms-arrange/files/考生信息Excel模板.xlsx
@@ -38,6 +38,9 @@
     <t>考生号</t>
   </si>
   <si>
+    <t>身份证号</t>
+  </si>
+  <si>
     <t>班级</t>
   </si>
   <si>
@@ -50,9 +53,6 @@
     <t>座位号</t>
   </si>
   <si>
-    <t>身份证号</t>
-  </si>
-  <si>
     <t>考点代码</t>
   </si>
   <si>
@@ -86,6 +86,9 @@
     <t>25333600101001</t>
   </si>
   <si>
+    <t>632701200312277595</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -93,9 +96,6 @@
   </si>
   <si>
     <t>#选填，不填则自动按顺序编号#</t>
-  </si>
-  <si>
-    <t>632701200312277595</t>
   </si>
   <si>
     <t>#默认不填，有多个考点才填#</t>
@@ -158,10 +158,10 @@
     <t>25333600101002</t>
   </si>
   <si>
+    <t>440523200611090915</t>
+  </si>
+  <si>
     <t>99</t>
-  </si>
-  <si>
-    <t>440523200611090915</t>
   </si>
   <si>
     <t>2023年1月12日9:00-10:30</t>
@@ -282,7 +282,7 @@
     </font>
     <font>
       <b/>
-      <sz val="28"/>
+      <sz val="22"/>
       <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -295,13 +295,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
@@ -310,6 +303,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -496,13 +496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,20 +1010,20 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1031,17 +1031,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1365,18 +1365,17 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="A1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.4444444444444" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.44444444444444" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5555555555556" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.6666666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.8888888888889" style="2" customWidth="1"/>
+    <col min="2" max="3" width="16.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.44444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.1111111111111" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5555555555556" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.6666666666667" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.8888888888889" style="3" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
     <col min="10" max="10" width="6.44444444444444" style="4" customWidth="1"/>
@@ -1393,7 +1392,7 @@
     <col min="22" max="22" width="34.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.4" spans="1:22">
+    <row r="1" ht="60" customHeight="1" spans="1:22">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1445,63 +1444,63 @@
         <v>8</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="14" t="s">
+      <c r="N2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="14" t="s">
+      <c r="Q2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="48" customHeight="1" spans="1:22">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="15" t="s">
@@ -1510,381 +1509,381 @@
       <c r="L3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>20</v>
+      <c r="N3" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:22">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
       <c r="J4" s="15"/>
       <c r="L4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>20</v>
+      <c r="N4" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="20"/>
+      <c r="V4" s="19"/>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:22">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="J5" s="17"/>
+      <c r="E5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="J5" s="20"/>
       <c r="L5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>20</v>
+      <c r="N5" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="O5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="T5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="20"/>
+      <c r="V5" s="19"/>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:22">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="J6" s="17"/>
+      <c r="D6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="J6" s="20"/>
       <c r="L6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>20</v>
+      <c r="N6" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="20"/>
+      <c r="V6" s="19"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:22">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="J7" s="17"/>
+      <c r="D7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="J7" s="20"/>
       <c r="L7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="13" t="s">
         <v>52</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="T7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="20"/>
+      <c r="V7" s="19"/>
     </row>
     <row r="8" ht="52" customHeight="1" spans="1:22">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="J8" s="17"/>
+      <c r="E8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="J8" s="20"/>
       <c r="L8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="13" t="s">
         <v>58</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="T8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="V8" s="20"/>
+      <c r="V8" s="19"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:22">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="J9" s="17"/>
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="J9" s="20"/>
       <c r="L9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="13" t="s">
         <v>34</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="V9" s="20"/>
-    </row>
-    <row r="10" spans="22:22">
-      <c r="V10" s="20"/>
-    </row>
-    <row r="11" spans="22:22">
-      <c r="V11" s="20"/>
-    </row>
-    <row r="12" spans="22:22">
-      <c r="V12" s="20"/>
-    </row>
-    <row r="13" spans="22:22">
-      <c r="V13" s="20"/>
-    </row>
-    <row r="14" spans="22:22">
-      <c r="V14" s="20"/>
-    </row>
-    <row r="15" spans="22:22">
-      <c r="V15" s="20"/>
-    </row>
-    <row r="16" spans="22:22">
-      <c r="V16" s="20"/>
+      <c r="V9" s="19"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="V10" s="19"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="V11" s="19"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="V12" s="19"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="V13" s="19"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="V16" s="19"/>
     </row>
     <row r="17" spans="22:22">
-      <c r="V17" s="20"/>
+      <c r="V17" s="19"/>
     </row>
     <row r="18" spans="22:22">
-      <c r="V18" s="20"/>
+      <c r="V18" s="19"/>
     </row>
     <row r="19" spans="22:22">
-      <c r="V19" s="20"/>
+      <c r="V19" s="19"/>
     </row>
     <row r="20" spans="22:22">
-      <c r="V20" s="20"/>
+      <c r="V20" s="19"/>
     </row>
     <row r="21" spans="22:22">
-      <c r="V21" s="20"/>
+      <c r="V21" s="19"/>
     </row>
     <row r="22" spans="22:22">
-      <c r="V22" s="20"/>
+      <c r="V22" s="19"/>
     </row>
     <row r="23" spans="22:22">
-      <c r="V23" s="20"/>
+      <c r="V23" s="19"/>
     </row>
     <row r="24" spans="22:22">
-      <c r="V24" s="20"/>
+      <c r="V24" s="19"/>
     </row>
     <row r="25" spans="22:22">
-      <c r="V25" s="20"/>
+      <c r="V25" s="19"/>
     </row>
     <row r="26" spans="22:22">
-      <c r="V26" s="20"/>
+      <c r="V26" s="19"/>
     </row>
     <row r="27" spans="22:22">
-      <c r="V27" s="20"/>
+      <c r="V27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
